--- a/DataSource/Endoso_ABM_Conductor_Propietario.xlsx
+++ b/DataSource/Endoso_ABM_Conductor_Propietario.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0863F090-E158-4318-B050-8879B319F8E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B9BE37-8BD0-4DD7-A0BD-3326E9106C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Ambiente</t>
   </si>
@@ -44,21 +44,9 @@
     <t>NombreApellido</t>
   </si>
   <si>
-    <t>ssurgwsoadev4.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>lmattioli</t>
-  </si>
-  <si>
     <t>silverarrow</t>
   </si>
   <si>
-    <t>04440024613</t>
-  </si>
-  <si>
     <t>ABM Conductor / Propietario</t>
   </si>
   <si>
@@ -71,16 +59,16 @@
     <t>Juan Perez</t>
   </si>
   <si>
-    <t>i-gestion-ssur-oci.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://i-gestion-ssur-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>suraqa</t>
-  </si>
-  <si>
-    <t>04104002557</t>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>04104013020</t>
   </si>
 </sst>
 </file>
@@ -125,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -135,7 +123,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -475,16 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -517,66 +501,36 @@
     </row>
     <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{7EA07E71-14D6-4F32-ADA5-BC980CB9FD62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
